--- a/second_analysis/results/Excel/radiographic_data_preprocessed.xlsx
+++ b/second_analysis/results/Excel/radiographic_data_preprocessed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:CJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,102 +676,202 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>LL_mean</t>
+          <t>MCL_pure_inter_first</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>LL_var</t>
+          <t>MCL_pure_inter_second</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>TCA_mean</t>
+          <t>MCL_pure_intra_obs1</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>TCA_var</t>
+          <t>MCL_pure_intra_obs2</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>5MTCA_mean</t>
+          <t>TUA_pure_inter_first</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>5MTCA_var</t>
+          <t>TUA_pure_inter_second</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>MT_calA_mean</t>
+          <t>TUA_pure_intra_obs1</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>MT_calA_var</t>
+          <t>TUA_pure_intra_obs2</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>TUA_mean</t>
+          <t>LL_pure_inter_first</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>TUA_var</t>
+          <t>LL_pure_inter_second</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>1MTA_mean</t>
+          <t>LL_pure_intra_obs1</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>1MTA_var</t>
+          <t>LL_pure_intra_obs2</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>ML_mean</t>
+          <t>1MTA_pure_inter_first</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>ML_var</t>
+          <t>1MTA_pure_inter_second</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>MA_mean</t>
+          <t>1MTA_pure_intra_obs1</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>MA_var</t>
+          <t>1MTA_pure_intra_obs2</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>MCL_mean</t>
+          <t>MT_calA_pure_inter_first</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>MCL_var</t>
+          <t>MT_calA_pure_inter_second</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>cal_PA_mean</t>
+          <t>MT_calA_pure_intra_obs1</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>cal_PA_var</t>
+          <t>MT_calA_pure_intra_obs2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>ML_pure_inter_first</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>ML_pure_inter_second</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>ML_pure_intra_obs1</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ML_pure_intra_obs2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>MA_pure_inter_first</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>MA_pure_inter_second</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>MA_pure_intra_obs1</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>MA_pure_intra_obs2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>5MTCA_pure_inter_first</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>5MTCA_pure_inter_second</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>5MTCA_pure_intra_obs1</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>5MTCA_pure_intra_obs2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>cal_PA_pure_inter_first</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>cal_PA_pure_inter_second</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>cal_PA_pure_intra_obs1</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>cal_PA_pure_intra_obs2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>TCA_pure_inter_first</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>TCA_pure_inter_second</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>TCA_pure_intra_obs1</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>TCA_pure_intra_obs2</t>
         </is>
       </c>
     </row>
@@ -792,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>6.15</v>
@@ -921,64 +1021,134 @@
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.668032644522597</v>
+        <v>-1.545338079686442</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.06530407947455076</v>
+        <v>-1.344082171586335</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.4627538113850098</v>
+        <v>-1.213500628066984</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.4426630431882967</v>
+        <v>-1.592534246793488</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.7711006618747145</v>
+        <v>1.784006944211152</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.2537599769917021</v>
+        <v>1.902446460728796</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.4673876942706439</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>4.580640022123855</v>
+        <v>2.032976718727156</v>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BE2" t="n">
-        <v>1.812421235592059</v>
+        <v>-1.549354352342289</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.03261002871060377</v>
+        <v>-1.695897709351796</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1826445350751442</v>
+        <v>-2.013652354176759</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.3462783858527774</v>
+        <v>-1.175414074166021</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.131513279055222</v>
+        <v>0.9615876099303539</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.291044701957999</v>
+        <v>0.8411874935255137</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.9624095953608236</v>
+        <v>1.043296608284954</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01717187753121681</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>-1.264992199198481</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>-0.1923106253892784</v>
+        <v>0.8726695347899145</v>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BO2" t="n">
-        <v>-1.652335874976829</v>
+        <v>-0.6406979482833883</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.2995250623130103</v>
+        <v>1.587752642085778</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>-1.887866228869958</v>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BT2" t="n">
+        <v>-2.030541926635159</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.8728561062686879</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1.012699373068465</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.8556154873029633</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>1.101003066206659</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-0.2448635359436195</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-1.061886295401518</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>-0.1286971936599478</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-1.130803179778905</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>-1.738079947549779</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>-1.625744958310125</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>-1.671136832423392</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>-1.526203486326791</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-0.6781618710286821</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-0.1260053064563094</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>-0.3798499498696368</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-0.378095396604922</v>
       </c>
     </row>
     <row r="3">
@@ -998,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>22.39</v>
@@ -1127,64 +1297,130 @@
         <v>1</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.2710058961850252</v>
+        <v>-1.207764227327753</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.3355629568036201</v>
+        <v>-1.138878786611322</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.08192646816120408</v>
+        <v>-1.213500628066984</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.5668161183590091</v>
+        <v>-1.1181623434933</v>
       </c>
       <c r="BA3" t="n">
-        <v>-1.649462419273638</v>
+        <v>-0.1476853201942865</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.5753628464671779</v>
+        <v>0.4094817245308363</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.153392868844204</v>
+        <v>-0.04025610013887816</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.2517431315236531</v>
+        <v>0.2641977815699871</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.02594309065046265</v>
+        <v>-0.1557239107316037</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.5592617721068153</v>
+        <v>-0.3772125419697926</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.3188430338262</v>
+        <v>-0.1773344079735356</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.3453362929451219</v>
+        <v>-0.3539426332044363</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.862198195317175</v>
+        <v>1.396075077487776</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.1912188997007493</v>
+        <v>0.9152759842435991</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.8570698978289797</v>
+        <v>1.043296608284954</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.2293439702925743</v>
+        <v>1.334123319199299</v>
       </c>
       <c r="BM3" t="n">
-        <v>-1.058967411055406</v>
+        <v>1.098748246952875</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.1983898224886169</v>
+        <v>1.221539017258122</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.2788833751474765</v>
+        <v>1.00652720407442</v>
       </c>
       <c r="BP3" t="n">
-        <v>4.905900924653119</v>
+        <v>1.297159144991651</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>-1.85006223269234</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>-2.077718383264783</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>-2.322736707024979</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>-1.655672647871746</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.8116825439863915</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.8707875134203346</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.8699437126474676</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.8765980837538547</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>-1.509063721516087</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>-1.69931402122942</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>-1.309004336601042</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>-1.651996414903339</v>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CF3" t="n">
+        <v>-1.630963862914622</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.05320969375344088</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.1583695296016171</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.2838941115214962</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>-0.1378770484497514</v>
       </c>
     </row>
     <row r="4">
@@ -1204,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>12.77</v>
@@ -1333,64 +1569,130 @@
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.7653384379044736</v>
+        <v>1.380301974088861</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.2029486343960855</v>
+        <v>1.528765218063847</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.7018004289904797</v>
+        <v>1.490320399986774</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.574737662060042</v>
+        <v>1.25369717300764</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.3225505910963311</v>
+        <v>0.01727810612169445</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.6106651493943132</v>
+        <v>-0.2074458524104693</v>
       </c>
       <c r="BC4" t="n">
-        <v>-1.238532390070249</v>
+        <v>-0.1392808670748602</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.1265403328256112</v>
+        <v>-0.05997127557110156</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.1857936160280593</v>
+        <v>-0.5144802620373248</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.5611061486941246</v>
+        <v>-0.9804408632190069</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.831807283122303</v>
+        <v>-1.115896913810738</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.3355431476712173</v>
+        <v>-0.3539426332044363</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.4981551781048578</v>
+        <v>-1.337720068383524</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.1856424083424314</v>
+        <v>-0.5094456922651835</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.4073826857586192</v>
+        <v>-1.303495120574887</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.2422396950222398</v>
+        <v>-0.5116918184382396</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9600755127467308</v>
+        <v>-1.390348023451464</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.1905093818042893</v>
+        <v>-0.9092591136663795</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.4766536740544249</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0.1007714279031867</v>
+        <v>-1.114598067508173</v>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.4937855303200036</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>1.103353792832109</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.7501824979849667</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.7184994509632104</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>-0.4045061347211617</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>-0.3535642960949141</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>-0.1050920220460358</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>-0.6194351325981704</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>-0.1043968486577897</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>-0.354341519732546</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>-0.168827636519945</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>-0.2968940035798113</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.2638791095397526</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.5853026652664776</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.09189888917392522</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.7785247986054927</v>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.01035475837474418</v>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CJ4" t="n">
+        <v>-0.2579862225273367</v>
       </c>
     </row>
     <row r="5">
@@ -1410,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>22.14</v>
@@ -1539,64 +1841,128 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05138489189287605</v>
+        <v>1.672865979466392</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.317507485677712</v>
+        <v>1.508244879566346</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.6638876485116235</v>
+        <v>1.64804329328991</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3579116354088051</v>
+        <v>1.348571553667677</v>
       </c>
       <c r="BA5" t="n">
-        <v>-1.415232617300592</v>
+        <v>-0.7405226335173435</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.5742209360046019</v>
+        <v>-1.015209693152285</v>
       </c>
       <c r="BC5" t="n">
-        <v>-1.677515082783373</v>
+        <v>-0.8552456502389834</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.3753234731156873</v>
+        <v>-0.9514361827090954</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.9953041048693277</v>
+        <v>0.2444274041863158</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.6354988042508515</v>
+        <v>-0.1527554922026436</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.541023488288799</v>
+        <v>-0.2453461837588399</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.3462507260050086</v>
+        <v>0.3306169009302176</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.7313467162019743</v>
+        <v>-0.2097906026044563</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.185147997768395</v>
+        <v>-0.522040735687258</v>
       </c>
       <c r="BK5" t="n">
-        <v>-1.311423018505123</v>
+        <v>-0.4409238631708018</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.5632045763111481</v>
+        <v>-0.2809649262335473</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.058967411055407</v>
+        <v>-1.605985136646036</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.1982907540914426</v>
+        <v>-1.541473943720897</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.725749307702045</v>
+        <v>-1.580550176347622</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.3194615509157543</v>
+        <v>-1.608775825949623</v>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BR5" t="n">
+        <v>1.158918372327251</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.7638399166739001</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>1.218325155981095</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-1.154610529373126</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>-1.347671353732073</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>-1.253499283408039</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>-1.21784841913898</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>-1.253414350655877</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>-1.467715280845282</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>-1.427035050895152</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>-1.130803179778905</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>1.782959279419835</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>1.561760539219206</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>1.756751023369939</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1.51184743472031</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.4354637640198243</v>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CI5" t="n">
+        <v>1.307583970555251</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>-0.2579862225273367</v>
       </c>
     </row>
     <row r="6">
@@ -1616,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>16.6</v>
@@ -1745,64 +2111,124 @@
         <v>1</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.441247400495384</v>
+        <v>-0.8701903749690645</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.6018095072158234</v>
+        <v>-0.8310737091488026</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.148173004258788</v>
+        <v>-1.213500628066984</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0.3299236771988968</v>
+        <v>-0.5489160595330748</v>
       </c>
       <c r="BA6" t="n">
-        <v>-1.593247266800107</v>
+        <v>0.9039565225700931</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.5980882744384421</v>
+        <v>1.176117060143233</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.5833418809230364</v>
+        <v>0.7928093994812873</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.3947418861011167</v>
+        <v>1.317747217278525</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.9759404818316634</v>
+        <v>1.389688064123809</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.475881096320801</v>
+        <v>1.404415290556956</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.1297040220606105</v>
+        <v>1.169298752575495</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.3430024273431289</v>
+        <v>1.562824062372595</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.122773677753402</v>
+        <v>0.7712820991402032</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.1913913685056458</v>
+        <v>-0.01601634408273467</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1546798432148626</v>
+        <v>0.1851217385332846</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.3268990035150136</v>
+        <v>0.5650336785169914</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.8117376652837159</v>
+        <v>-0.5004790314448941</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0.1902842263561656</v>
+        <v>-0.5336376482790458</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.6457790120615811</v>
+        <v>-0.5214777925035773</v>
       </c>
       <c r="BP6" t="n">
-        <v>-0.3289038255486846</v>
+        <v>-0.5432663366044892</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.4811841982607972</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.2004293760360485</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.1219412382940444</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.4685865984542675</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>-0.01853008698762678</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.3444103605418099</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.1771740172406949</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.2033831363954434</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-1.582106398904719</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>-1.542081848858538</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-1.313725565172807</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-1.547757767878452</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.5854196391403985</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.6096347683010523</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.631908619881094</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.5690040454298305</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1.795246818930277</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>2.253885739569453</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>2.058557236389025</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>1.663760562714027</v>
       </c>
     </row>
     <row r="7">
@@ -1822,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>19.37</v>
@@ -1839,9 +2265,7 @@
       <c r="K7" t="n">
         <v>18</v>
       </c>
-      <c r="L7" t="n">
-        <v>15.125</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>19</v>
       </c>
@@ -1951,64 +2375,124 @@
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.462740119700577</v>
+        <v>-0.7126559105350098</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.4696893137389384</v>
+        <v>-0.6874313396662936</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.9507610208016258</v>
+        <v>-0.6727364224562328</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.618752344822691</v>
+        <v>-0.7386648208531499</v>
       </c>
       <c r="BA7" t="n">
-        <v>-1.68342574055973</v>
+        <v>1.297953991672994</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.6127375054189881</v>
+        <v>0.7722351397723243</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.8722925141012989</v>
+        <v>1.063162731433492</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.2905836055149859</v>
+        <v>1.074620424422709</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.9936522975994478</v>
+        <v>1.596662882184801</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.3652571910992516</v>
+        <v>1.236072503231594</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.04526095283495599</v>
+        <v>1.346129369617287</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0.3440990988550725</v>
+        <v>1.425912155545664</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.03177210191062473</v>
+        <v>0.7226195027737717</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.1945555961794789</v>
+        <v>0.301082396190671</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.3735105243970865</v>
+        <v>0.5122129798730607</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.251990231248423</v>
+        <v>0.5650336785169914</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.6963637839235941</v>
+        <v>-0.9337047249217764</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.1982457230018178</v>
+        <v>-0.6585195900182079</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.108939251440654</v>
+        <v>-0.7917101456045004</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.3014946508586644</v>
+        <v>-0.8338598336986166</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.2543602211950863</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.228211665783619</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.1765709130497768</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.2186737459453246</v>
+      </c>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="n">
+        <v>0.1923619394902413</v>
+      </c>
+      <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="n">
+        <v>0.5025897796658485</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>-1.613009070107601</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>-1.682315948540676</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>-1.613523579479845</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>-1.443519120853566</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>1.240998740128288</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.885751241867317</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1.099347872943821</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.9880455517811548</v>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CH7" t="n">
+        <v>1.787697483736786</v>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CJ7" t="n">
+        <v>2.144197259024368</v>
       </c>
     </row>
     <row r="8">
@@ -2028,10 +2512,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>14.41</v>
@@ -2157,64 +2641,130 @@
         <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.6435463624083777</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>-0.5556677476718346</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1.034801017529755</v>
+        <v>-0.2625574407234245</v>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="AZ8" t="n">
-        <v>-0.4214684083782163</v>
+        <v>-0.2642929175529619</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.2325740395797889</v>
+        <v>0.03937142214615625</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.6190109641331398</v>
+        <v>-0.009206457686662842</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0127450896195337</v>
+        <v>0.07370097292237053</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.3939830978424338</v>
+        <v>-0.05997127557110156</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.07670493254920112</v>
+        <v>-0.597270189261722</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.7061439093927602</v>
+        <v>-0.6577838541787296</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.4785991763612318</v>
+        <v>-0.6126097729994845</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.3459881317383933</v>
+        <v>-0.6277664468582977</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.07727288983201334</v>
+        <v>-0.4322481859938563</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.1939485059862435</v>
+        <v>-0.1286308499742245</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.3550890501981681</v>
+        <v>-0.1991225422879029</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.5926093742031451</v>
+        <v>-0.2809649262335473</v>
       </c>
       <c r="BM8" t="n">
-        <v>3.391168012835018</v>
+        <v>0.08300962778748523</v>
       </c>
       <c r="BN8" t="n">
-        <v>5.289567082513074</v>
+        <v>0.03418493056622356</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.3368212867478549</v>
+        <v>0.05475296043221553</v>
       </c>
       <c r="BP8" t="n">
-        <v>-0.2531900721198448</v>
+        <v>0.03792065758376552</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0.3677722097279415</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.2143205209098337</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.2858302625612417</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.2186737459453246</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>-0.346245599214213</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>-0.3108459301804258</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>-0.2204342360692937</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>-0.3950301501453666</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.6485045951942577</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.08335885200261385</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.3599499635176655</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.2242992315446225</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.1093578656327287</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.4615263150471174</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.3555004770882943</v>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.8307357747596776</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>1.150185043885614</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1.094022814850854</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.7028871700933453</v>
       </c>
     </row>
     <row r="9">
@@ -2234,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>17.68</v>
@@ -2363,64 +2913,124 @@
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.1348853412188</v>
+        <v>-0.3300722111951623</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.5811746830719282</v>
+        <v>-0.410406769950026</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.8515559118819563</v>
+        <v>-0.4361520825015289</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.6297910812904272</v>
+        <v>-0.3591672982129995</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3256803858640751</v>
+        <v>-1.054984164932182</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.1811698038323271</v>
+        <v>-1.118030955975836</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.8020754896051779</v>
+        <v>-1.131886268980774</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.3372791795928997</v>
+        <v>-1.11352071127964</v>
       </c>
       <c r="BE9" t="n">
-        <v>-1.217506884501541</v>
+        <v>-0.03153901989500819</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.7157176916014784</v>
+        <v>-0.2369268858653241</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.6962897768650026</v>
+        <v>-0.1909367631305962</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.3436732351770959</v>
+        <v>-0.08011881955057447</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.1512116702042697</v>
+        <v>-1.000557793558964</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.1924330800872202</v>
+        <v>-0.3546007466643851</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.113296390613067</v>
+        <v>-0.6027109287797227</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.6532704199556931</v>
+        <v>-0.6655097465747012</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.4450135423890423</v>
+        <v>-0.8019806964997546</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.1978967320572262</v>
+        <v>-0.6546170293388626</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.9348396387862289</v>
+        <v>-0.6536134651595404</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.3387160974616757</v>
+        <v>-0.8338598336986166</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.2039548929582617</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.5754902876282577</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.3268025186280413</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.3436301721997961</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.1395016155749716</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.1076492477615102</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.170009904568443</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.1285814755778422</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.3254312144368492</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.4966244942477041</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.9017109421276284</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>-0.08841670953003776</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.9353648091651292</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.8370870357981676</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.8698970980386007</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.8832851751933238</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.7739302163299994</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.8681411491068526</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.7029953466597044</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.8229963441709306</v>
       </c>
     </row>
     <row r="10">
@@ -2440,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>12.44</v>
@@ -2569,64 +3179,130 @@
         <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.6531810296382915</v>
+        <v>-1.432813462233546</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.197648301639282</v>
+        <v>-1.446683864073842</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.4825381818877697</v>
+        <v>-1.213500628066984</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.589506288249101</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0.1974395692838319</v>
+        <v>-1.592534246793488</v>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BB10" t="n">
-        <v>-0.4000214376141406</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0.4320266027977774</v>
+        <v>0.3313375647849379</v>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BD10" t="n">
-        <v>-0.3404119171753238</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0.9135465853769654</v>
+        <v>0.6694091029963479</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BF10" t="n">
-        <v>2.616149497541985</v>
+        <v>0.2961586073316557</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.07363564007475928</v>
+        <v>1.033275201004886</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.340355923499266</v>
+        <v>0.1937049941032867</v>
       </c>
       <c r="BI10" t="n">
-        <v>-1.287750747809643</v>
+        <v>0.8938075649913959</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.1942428527466001</v>
+        <v>0.06251745607843603</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.9793391896070128</v>
+        <v>0.2264477824659987</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.1458718696459579</v>
+        <v>0.7188516066534529</v>
       </c>
       <c r="BM10" t="n">
-        <v>-1.264992199198481</v>
+        <v>0.5064779858257022</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.1923106253892784</v>
+        <v>0.4205384378217568</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.1578426920639236</v>
+        <v>0.3826083888267099</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.3372773745787173</v>
+        <v>0.5222431527406445</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>-1.169590301495208</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>-1.424834574196861</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>-1.353059980110729</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>-1.280803369108331</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1.060746333278597</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.8584788317161599</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>1.17441850121818</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.8017964229362535</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.4869679048155537</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.1417897268701713</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.7612543921176376</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>-0.1926553565549245</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>-0.228089262605405</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>-0.171108363851834</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>-0.1727699116469792</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>-0.164318590684987</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.5964128462372511</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.3623268915284088</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.5185105924361869</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.3425596478605896</v>
       </c>
     </row>
     <row r="11">
@@ -2646,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>14.46</v>
@@ -2775,64 +3451,124 @@
         <v>1</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.2136919783045095</v>
+        <v>-0.4988591373745068</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.6129867036270999</v>
+        <v>-0.4514474469450286</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.2782449463879164</v>
+        <v>-0.4248861615513049</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.5838144205606181</v>
+        <v>-0.5489160595330748</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.4843710767008135</v>
+        <v>1.776642505536332</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.5353748337869725</v>
+        <v>0.6949135501290136</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.3027060396970143</v>
+        <v>1.264355908700248</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.2995613839025754</v>
+        <v>1.317747217278525</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.21746524230146</v>
+        <v>-0.2247155167519344</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.510050951980086</v>
+        <v>-0.1948411890339838</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1020604233141029</v>
+        <v>-0.3405626698582667</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.3453915608255496</v>
+        <v>-0.08011881955057447</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0.9180568459483615</v>
+        <v>0.9859189081135696</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.1935920704561242</v>
+        <v>0.5574285740752466</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.06739837954562042</v>
+        <v>0.6432253319150677</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.5240640305148022</v>
+        <v>0.9495784988581453</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.5233029618834107</v>
+        <v>0.2596173992273857</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.1980926172970937</v>
+        <v>0.4176115173122478</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.1411664839552632</v>
+        <v>0.4263224459459762</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.3035264884741209</v>
+        <v>0.2316496556465171</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>-0.8923609961926727</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>-0.8275153446240827</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>-0.8750503259980708</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>-0.9059340903449173</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.2385445259367843</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>-0.07915309810184515</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.08260772996696787</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.1285814755778422</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.7664966125143553</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.4509421738967037</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.7494513206882264</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.3285378785695092</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.228657355413887</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>-0.02405782812114159</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.08442839882817384</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.1499625390785062</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>-0.1065559393300328</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>-0.3486101986164082</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>-0.3878710261402243</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>-0.01776787437216618</v>
       </c>
     </row>
     <row r="12">
@@ -2852,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>15.48</v>
@@ -2981,64 +3717,126 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.8107943038097096</v>
+        <v>0.4688525727204013</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.4963426282581362</v>
+        <v>0.5335288009350339</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.01937038037109313</v>
+        <v>0.6115785658693025</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.5120512170733196</v>
+        <v>0.3049533664072637</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.2688796588856109</v>
+        <v>-1.053511277197218</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0.3728957775054499</v>
+        <v>-0.368669592517797</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0.6161771801478377</v>
+        <v>-0.6501229187287352</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.3400370830715755</v>
+        <v>-0.8703939184238232</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.8499867073200003</v>
+        <v>0.9757384280018233</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.5535323568212136</v>
+        <v>0.5907584851510393</v>
       </c>
       <c r="BG12" t="n">
-        <v>-1.288526248934177</v>
+        <v>0.6524092566071804</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.3463104028802441</v>
+        <v>0.8782645282379407</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.8394110875152718</v>
+        <v>-1.663585669051591</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.1856975983599983</v>
+        <v>-1.722274285320242</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.0913635931630873</v>
+        <v>-1.929540722278974</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.07124205579285947</v>
+        <v>-1.51150835132524</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.226627266957383</v>
+        <v>-0.4331534169180816</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.197543238003672</v>
+        <v>-0.664373431037237</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.4904711036301729</v>
+        <v>-0.4867052470677948</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.338150959839201</v>
+        <v>-0.640130835635865</v>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BR12" t="n">
+        <v>1.200591806948608</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1.569627619320952</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.7184994509632104</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.03317613827479022</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>-0.1805187121362243</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.2101289355330541</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>-0.3202284893277654</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.8830839629615937</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>-0.02819100001726917</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.7872211492623423</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>-0.08841670953003776</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.4581668500404962</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.4308467068730881</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.4387430837980947</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.4642436688419995</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.4520320518951493</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>-0.3497756692559896</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>-0.01589361409172019</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.1023412997054191</v>
       </c>
     </row>
     <row r="13">
@@ -3058,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>12.59</v>
@@ -3187,64 +3985,124 @@
         <v>1</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.3307902415603902</v>
+        <v>-1.207764227327753</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.638207044247415</v>
+        <v>-1.138878786611322</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.9027381655284105</v>
+        <v>-1.213500628066984</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.4438750103035065</v>
+        <v>-1.1181623434933</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.9684392700370059</v>
+        <v>0.04673586082097667</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.3519911504376682</v>
+        <v>0.8627178510570491</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.1541894555109879</v>
+        <v>0.6002612415502111</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.2069344960361398</v>
+        <v>0.2641977815699871</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.3540142236219365</v>
+        <v>0.3686122950229113</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.4954110638417902</v>
+        <v>0.268101476110762</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.7251184591006428</v>
+        <v>0.1491221157959266</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.3423419307160362</v>
+        <v>0.4675288077571486</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.6564273154003775</v>
+        <v>-0.7885279093909425</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.1937760371813471</v>
+        <v>-0.6294690472284821</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.170455497986216</v>
+        <v>-0.6264514221027712</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.423235061385133</v>
+        <v>-0.742418710642932</v>
       </c>
       <c r="BM13" t="n">
-        <v>-1.058967411055406</v>
+        <v>0.08398536133135119</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.1983898224886169</v>
+        <v>0.3063885379508056</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.1595007836130135</v>
+        <v>0.3329333239184525</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.3404898462371654</v>
+        <v>0.03792065758376552</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>-0.4261117100020457</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>-0.7024950407600129</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>-0.6565316269751417</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>-0.531064811581503</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1.346222957262646</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.942467483344645</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>1.03686753791094</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>1.325408048659462</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>-1.305387024951634</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>-0.6178116464080791</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>-0.8805528437134252</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>-0.818087238704245</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>-0.2110464783509536</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>-0.190150879270197</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>-0.175971550366587</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>-0.164318590684987</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.6259990745860424</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>1.108228100860676</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.7842087438994052</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0.8229963441709306</v>
       </c>
     </row>
     <row r="14">
@@ -3264,10 +4122,10 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>21.08</v>
@@ -3393,64 +4251,124 @@
         <v>1</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.706324270692768</v>
+        <v>0.8514362720602487</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.5540272396220808</v>
+        <v>0.7489923551587976</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.2127255608132526</v>
+        <v>0.8932265896249023</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.5345946730789799</v>
+        <v>0.5895765083873765</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.3532023875959079</v>
+        <v>-0.4267975459699868</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.1065240156195655</v>
+        <v>-0.4805391264698206</v>
       </c>
       <c r="BC14" t="n">
-        <v>-1.580019502008193</v>
+        <v>-0.5597431711284343</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.3077958781184983</v>
+        <v>-0.3841403327121902</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0.5621697010934923</v>
+        <v>1.389688064123809</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.6431415613077557</v>
+        <v>1.923472218143489</v>
       </c>
       <c r="BG14" t="n">
-        <v>-1.250163671785963</v>
+        <v>1.672585893386749</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.3463418075473207</v>
+        <v>1.562824062372595</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.4810923826343369</v>
+        <v>-1.569736376059187</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.193260930350723</v>
+        <v>-1.67708030598221</v>
       </c>
       <c r="BK14" t="n">
-        <v>-1.714723574769897</v>
+        <v>-1.868870572675628</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.6448788346558604</v>
+        <v>-1.434599387257009</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.4532545339147656</v>
+        <v>-1.466455239873076</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.1982749932100739</v>
+        <v>-1.492691935229036</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.960092913306731</v>
+        <v>-1.388804425801748</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.2361345264217704</v>
+        <v>-1.608775825949623</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0.8214201638593632</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0.7005105914923275</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0.8457844288074987</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0.593543024708739</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>-1.587195005512219</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>-1.693762521649453</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>-1.591645401538335</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>-1.666658384044588</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.4349952305197966</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.4636907284132621</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>1.075216092139969</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>-0.1926553565549245</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>1.776142165718054</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>2.016665074213436</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1.889085423780391</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>1.826128564483803</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.4330968657519232</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0.02550587668930698</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.09038564649356712</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0.3425596478605896</v>
       </c>
     </row>
     <row r="15">
@@ -3470,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>22.8</v>
@@ -3599,64 +4517,126 @@
         <v>1</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.025721495861644</v>
+        <v>0.7951739633338005</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.5467833094987663</v>
+        <v>0.8208135399000523</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.05455954156267288</v>
+        <v>0.9157584315253503</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.1592062153779458</v>
+        <v>0.5895765083873765</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.5007671628389269</v>
+        <v>-0.3641998172340117</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.3990427440258985</v>
+        <v>-0.7536324005291717</v>
       </c>
       <c r="BC15" t="n">
-        <v>-2.038703374256198</v>
+        <v>-0.5966809810172529</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.1912416239602313</v>
+        <v>-0.5462248612827345</v>
       </c>
       <c r="BE15" t="n">
-        <v>-0.6615973941535586</v>
+        <v>0.9481417855936909</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.4568254854820223</v>
+        <v>1.039672584685339</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.789131753513639</v>
+        <v>0.9244563597483989</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0.3260110893152759</v>
+        <v>1.015176435064872</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.1682744656747906</v>
+        <v>-1.61318512281493</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.1912257984529452</v>
+        <v>-0.1352988141388522</v>
       </c>
       <c r="BK15" t="n">
-        <v>-1.397575842557953</v>
+        <v>-0.8744076856990524</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.3689194722919362</v>
+        <v>-0.742418710642932</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.4614955254404887</v>
+        <v>-1.805034779594876</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0.1974464211609789</v>
+        <v>-2.04002607050772</v>
       </c>
       <c r="BO15" t="n">
-        <v>1.792072969665636</v>
+        <v>-1.893503085269647</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.2813902995957794</v>
+        <v>-1.996233822075126</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0.4937855303200036</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0.2976673901525471</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0.5043489615841714</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0.2186737459453246</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>-1.416054682460558</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>-1.25354614070015</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>-1.130992956712529</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>-1.517055062409385</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>-0.06085217559918216</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>1.106430351956397</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.7824999206905773</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>0.3285378785695092</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>1.85794753013942</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>1.618888085474296</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1.884816572154248</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1.51184743472031</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.0129724231990842</v>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CI15" t="n">
+        <v>-0.6345191214607956</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0.7028871700933453</v>
       </c>
     </row>
     <row r="16">
@@ -3676,10 +4656,10 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>16.75</v>
@@ -3805,64 +4785,130 @@
         <v>1</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.8179585435447746</v>
+        <v>1.087737968711331</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.9231613159739809</v>
+        <v>1.210699971352577</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.4547354762032764</v>
+        <v>1.411458953335206</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.6101629721495995</v>
+        <v>0.7793252697074516</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.02235279230897968</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>0.5804809502908143</v>
+        <v>1.441560545831995</v>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BC16" t="n">
-        <v>-0.9152309823183437</v>
+        <v>0.4485804477514452</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.3623921525389258</v>
+        <v>1.47983174584907</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.8801356601786436</v>
+        <v>0.465200543451375</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.70345809422403</v>
+        <v>1.123843978348019</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.2729394432471373</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>-0.3304055382086092</v>
+        <v>0.9380587149054596</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BI16" t="n">
-        <v>0.9133498678875287</v>
+        <v>-0.05598203908912884</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.1944935074097162</v>
+        <v>0.2218077111223196</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0.8343846739680584</v>
+        <v>-0.6334856423466372</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.2065984358799667</v>
+        <v>0.7957605707216837</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.725207254263625</v>
+        <v>-0.8624761762194944</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.1931234365570048</v>
+        <v>-0.8126707368524934</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.586087716294349</v>
+        <v>-0.776807626132014</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.3329157431260541</v>
+        <v>-0.9307243327299923</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>1.22466278975396</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>1.311720965938892</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>1.200877314719759</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1.218325155981096</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>-0.7293086201724006</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>-0.8524279251641077</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>-0.9898599370691634</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>-0.5446334717805692</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>-0.3459995507894167</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.4541293125258433</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>-0.2998417293864069</v>
+      </c>
+      <c r="CB16" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.6024624233948496</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0.4795109129422375</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0.6233709166288062</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.4642436688419995</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.394043044331517</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0.5103416627552817</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.2738677661832621</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0.5827779960157601</v>
       </c>
     </row>
     <row r="17">
@@ -3882,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>20.19</v>
@@ -4011,64 +5057,124 @@
         <v>1</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.061542694536967</v>
+        <v>1.234019971400096</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.4421762148804116</v>
+        <v>0.9028948938900575</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.302717999580327</v>
+        <v>1.107279087679158</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.3971391446609806</v>
+        <v>0.8741996503674894</v>
       </c>
       <c r="BA17" t="n">
-        <v>-1.093166639587653</v>
+        <v>0.5460448029738123</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.5869705072958625</v>
+        <v>0.3206441534512884</v>
       </c>
       <c r="BC17" t="n">
-        <v>-1.763392019217474</v>
+        <v>0.4580113779358242</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0.3903058932042011</v>
+        <v>0.4262823101405314</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.3616625077034799</v>
+        <v>1.017133391614022</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.381273242248279</v>
+        <v>1.039672584685339</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.7711989511780833</v>
+        <v>0.856444583963094</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.3469340636746474</v>
+        <v>1.152088341891802</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.7484095116724951</v>
+        <v>-0.7337824884787071</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.1936265642171035</v>
+        <v>-0.826544432538589</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0.5804407602752202</v>
+        <v>-0.8928725138392011</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.06062376685792379</v>
+        <v>-0.6655097465747012</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.6551588262949793</v>
+        <v>-1.632329942330445</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0.1976152877470716</v>
+        <v>-1.680990488007621</v>
       </c>
       <c r="BO17" t="n">
-        <v>1.579284554199116</v>
+        <v>-1.650095267219187</v>
       </c>
       <c r="BP17" t="n">
-        <v>-0.3313693083695053</v>
+        <v>-1.705640324980999</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>1.123852133280311</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1.020006923589396</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0.9413863596300301</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>1.093368729726624</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>-0.648472127156509</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>-0.4440693086256096</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>-0.3630000782471096</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>-0.6942367934157717</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>-0.9654576417199265</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>-1.101194338494238</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>-0.7778661222775499</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>-1.130803179778905</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>1.561403084111969</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>1.487706312592239</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>1.473939603137924</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>1.51184743472031</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>1.338435453224939</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1.144357690687708</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.8172956835155778</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>1.543651388636442</v>
       </c>
     </row>
     <row r="18">
@@ -4088,10 +5194,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>11.86</v>
@@ -4216,65 +5322,133 @@
       <c r="AV18" t="n">
         <v>1</v>
       </c>
-      <c r="AW18" t="n">
-        <v>1.448411640230447</v>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="AX18" t="n">
-        <v>-0.07648127588582389</v>
+        <v>-1.138878786611322</v>
       </c>
       <c r="AY18" t="n">
-        <v>-1.497772718457745</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>-0.004624288903918857</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>1.019586174209224</v>
+        <v>-1.213500628066984</v>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BB18" t="n">
-        <v>-0.2604475544692878</v>
+        <v>1.091392339576626</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.1981382406272621</v>
+        <v>1.878152281533597</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.1643265288998302</v>
+        <v>0.5057037291400979</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.128503622195085</v>
+        <v>1.624259524592934</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.444484071636458</v>
+        <v>1.179958240789806</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.5322206818695209</v>
+        <v>1.346129369617287</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0.3410669916736416</v>
+        <v>1.398529774180277</v>
       </c>
       <c r="BI18" t="n">
-        <v>-0.5426753455969059</v>
+        <v>1.257908062804515</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0.1811927131761035</v>
+        <v>1.729508497235357</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.2521190634318184</v>
+        <v>1.668462932458557</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.2402481667829755</v>
+        <v>1.510244846915548</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0.4532545339147652</v>
+        <v>0.2049763207708418</v>
       </c>
       <c r="BN18" t="n">
-        <v>-0.05242830013349855</v>
+        <v>0.2702898516668278</v>
       </c>
       <c r="BO18" t="n">
-        <v>-0.5602062413097058</v>
+        <v>0.07859699158817435</v>
       </c>
       <c r="BP18" t="n">
-        <v>-0.3033970943402623</v>
+        <v>0.3701658892613852</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0.02753624412937604</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>-0.9247533587405816</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>-0.7248187204198074</v>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BU18" t="n">
+        <v>0.1234799683105603</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0.390748926957526</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0.280337239721124</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.2894050463356848</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>1.633176073067924</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0.766468898181516</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0.6774525849688198</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>1.344864687062155</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>-0.614392372372965</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>-0.5815803628698826</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>-0.4534469060659228</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>-0.6514543418184015</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>-1.898297928132839</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>-0.8334459846823813</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>-1.449660997459271</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>-1.063918780587934</v>
       </c>
     </row>
     <row r="19">
@@ -4294,10 +5468,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>11.14</v>
@@ -4423,64 +5597,126 @@
         <v>1</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.555875236256415</v>
+        <v>-1.207764227327753</v>
       </c>
       <c r="AX19" t="n">
-        <v>-0.4138033316825558</v>
+        <v>-1.138878786611322</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0.9840545429692629</v>
+        <v>-1.213500628066984</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.6072385542650303</v>
+        <v>-1.1181623434933</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.5493698467483339</v>
+        <v>1.381908592565948</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.5739165146582902</v>
+        <v>1.627708046464268</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.1228696316350223</v>
+        <v>1.498557341612333</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.358265329377219</v>
+        <v>1.560874010134342</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.458184920236357</v>
+        <v>1.596662882184801</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.7131938311180293</v>
+        <v>1.418443856167403</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.4323417827854132</v>
+        <v>1.522959986659078</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0.3320056783017974</v>
+        <v>1.425912155545664</v>
       </c>
       <c r="BI19" t="n">
-        <v>-0.5711133380477736</v>
+        <v>0.7877926229073851</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.1934425974918806</v>
+        <v>1.804337872860624</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.3661116646894925</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>-0.4821229805032865</v>
+        <v>1.658790879623242</v>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BM19" t="n">
-        <v>-1.058967411055406</v>
+        <v>0.1815587157180364</v>
       </c>
       <c r="BN19" t="n">
-        <v>-0.1983898224886169</v>
+        <v>0.1483348304371748</v>
       </c>
       <c r="BO19" t="n">
-        <v>-0.676825346929019</v>
+        <v>0.1719861136156981</v>
       </c>
       <c r="BP19" t="n">
-        <v>-0.2457481608535947</v>
+        <v>0.1347851566151413</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>-0.4891183702980762</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>-0.4246721432843016</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>-0.4516703466411454</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>-0.531064811581503</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0.284424697648506</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0.4501202151776618</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.2932326425311781</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0.5025897796658485</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>1.003885314027407</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.3893241604000066</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0.7624346992605784</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.432776525594396</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>-0.6030305162033307</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>-0.8153801355064516</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>-0.7479976682698327</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>-0.5833600970363113</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>-0.7752047000127178</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>-0.9919499916654887</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>-0.9062330801269549</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>-0.7384229188376777</v>
       </c>
     </row>
     <row r="20">
@@ -4500,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>10.38</v>
@@ -4629,64 +5865,132 @@
         <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>-1.059072267042117</v>
+        <v>1.560341362013495</v>
       </c>
       <c r="AX20" t="n">
-        <v>-0.3963210501161979</v>
+        <v>1.056797432621317</v>
       </c>
       <c r="AY20" t="n">
-        <v>-0.3945108065230712</v>
+        <v>1.039683561977814</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-0.5135558231730676</v>
+        <v>1.348571553667677</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.4908123962550723</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>1.019482083681119</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.3153350009373229</v>
+        <v>0.1873966395100501</v>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BD20" t="n">
-        <v>-0.3285312264951994</v>
+        <v>0.4262823101405314</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.8491399825850199</v>
+        <v>-0.9974215041796411</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.357835507131989</v>
+        <v>-1.064612256881688</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.201258329904455</v>
+        <v>-0.9934757173971898</v>
       </c>
       <c r="BH20" t="n">
-        <v>-0.335920470012127</v>
+        <v>-1.03850216733909</v>
       </c>
       <c r="BI20" t="n">
-        <v>-0.01941628450093734</v>
+        <v>0.6774328061478001</v>
       </c>
       <c r="BJ20" t="n">
-        <v>-0.1853503611661401</v>
+        <v>1.144209420562483</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.8092908207341791</v>
+        <v>1.291252871881236</v>
       </c>
       <c r="BL20" t="n">
-        <v>-0.2721874160260287</v>
+        <v>0.7188516066534529</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.8364606398608854</v>
+        <v>0.4215891675092856</v>
       </c>
       <c r="BN20" t="n">
-        <v>-0.1856730427785932</v>
+        <v>0.2800462533652023</v>
       </c>
       <c r="BO20" t="n">
-        <v>-0.8116834595883194</v>
+        <v>0.2524597187670753</v>
       </c>
       <c r="BP20" t="n">
-        <v>-0.267430421121805</v>
+        <v>0.4253786537092687</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>-0.04807174822586091</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0.4365788388904027</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0.3268025186280413</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>-0.03123910656361772</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0.7031722966047</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0.8867163956257369</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.9938828618774284</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0.652193101301051</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>-0.1507508554621133</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1.156362190479582</v>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CB20" t="n">
+        <v>0.5370151726192828</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>-0.6893806230925498</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>-0.9931102794111737</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>-0.7949550361574124</v>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CG20" t="n">
+        <v>-0.03318209302503042</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>-0.6353159759534983</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>-0.4720923269813949</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>-0.1378770484497514</v>
       </c>
     </row>
     <row r="21">
@@ -4706,10 +6010,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>6.51</v>
@@ -4835,64 +6139,126 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>-1.410120014060276</v>
+        <v>0.1537836438522917</v>
       </c>
       <c r="AX21" t="n">
-        <v>-0.3610698922037104</v>
+        <v>0.09234152323875594</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.6746296029806333</v>
+        <v>0.03701659740787865</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.2862565769723966</v>
+        <v>0.1152046050871883</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.84700294967901</v>
+        <v>0.6550384953611567</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.024941402528434</v>
+        <v>0.1956134978578505</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.059433397216307</v>
+        <v>0.5334588194108582</v>
       </c>
       <c r="BD21" t="n">
-        <v>-0.171191191427606</v>
+        <v>0.3452400458552592</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.3600523426336813</v>
+        <v>-1.356177855485362</v>
       </c>
       <c r="BF21" t="n">
-        <v>-0.1102718992393233</v>
+        <v>-1.387269265921965</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.3211130088053841</v>
+        <v>-1.251920465381347</v>
       </c>
       <c r="BH21" t="n">
-        <v>-0.3436632678341329</v>
+        <v>-1.449237887819883</v>
       </c>
       <c r="BI21" t="n">
-        <v>-0.6052389289888148</v>
+        <v>1.424751250346566</v>
       </c>
       <c r="BJ21" t="n">
-        <v>-0.188963007732704</v>
+        <v>0.8982356313784391</v>
       </c>
       <c r="BK21" t="n">
-        <v>2.135442370019001</v>
+        <v>0.9641616305414596</v>
       </c>
       <c r="BL21" t="n">
-        <v>-0.5169788839059168</v>
+        <v>1.41103228326753</v>
       </c>
       <c r="BM21" t="n">
-        <v>-0.06592793220578375</v>
+        <v>1.25584134751544</v>
       </c>
       <c r="BN21" t="n">
-        <v>-0.1965818242401841</v>
+        <v>0.882991878324602</v>
       </c>
       <c r="BO21" t="n">
-        <v>-1.632438776387751</v>
+        <v>1.119786352065246</v>
       </c>
       <c r="BP21" t="n">
-        <v>-0.3387825430979814</v>
+        <v>1.006565647897523</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>-0.4009090458836328</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>-0.6052570266435137</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>-0.2604664849960819</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>-0.7809776640904459</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>2.204837599296301</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>1.945987062284997</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>2.158051171118386</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>2.073424656835475</v>
+      </c>
+      <c r="BY21" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BZ21" t="n">
+        <v>1.486762228367045</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0.899350327841745</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>2.621788113117018</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>-1.697177265339097</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>-1.625744958310125</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>-1.525995877134508</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>-1.630963862914622</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>1.283996793063163</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0.03949152436428751</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.52252113057148</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.7028871700933453</v>
       </c>
     </row>
     <row r="22">
@@ -4912,10 +6278,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>11.26</v>
@@ -5041,64 +6407,134 @@
         <v>1</v>
       </c>
       <c r="AW22" t="n">
-        <v>-0.7151887597590222</v>
+        <v>0.2325508760693189</v>
       </c>
       <c r="AX22" t="n">
-        <v>-0.6118403245079923</v>
+        <v>0.3180652467112702</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.05286000312741492</v>
+        <v>0.3637283049643745</v>
       </c>
       <c r="AZ22" t="n">
-        <v>2.572749001101401</v>
+        <v>0.1152046050871883</v>
       </c>
       <c r="BA22" t="n">
-        <v>-0.4783134094084066</v>
+        <v>-1.781117818269492</v>
       </c>
       <c r="BB22" t="n">
-        <v>0.2233718023696181</v>
+        <v>-1.826263814304455</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.5825638207822571</v>
+        <v>-1.797552757828208</v>
       </c>
       <c r="BD22" t="n">
-        <v>-0.2835721101631179</v>
+        <v>-1.923943354132361</v>
       </c>
       <c r="BE22" t="n">
-        <v>-1.961000605481065</v>
+        <v>-0.6110685104657879</v>
       </c>
       <c r="BF22" t="n">
-        <v>-0.7534818769365049</v>
+        <v>-0.784040944672751</v>
       </c>
       <c r="BG22" t="n">
-        <v>-0.4824581338258449</v>
+        <v>-0.7486333245700938</v>
       </c>
       <c r="BH22" t="n">
-        <v>-0.3435375172728191</v>
+        <v>-0.6277664468582977</v>
       </c>
       <c r="BI22" t="n">
-        <v>-0.04216667846163164</v>
+        <v>-0.4322481859938563</v>
       </c>
       <c r="BJ22" t="n">
-        <v>-0.1939416072340476</v>
+        <v>-0.1412258933962989</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.04256830798454302</v>
+        <v>-0.4778535194510986</v>
       </c>
       <c r="BL22" t="n">
-        <v>4.742670816225706</v>
+        <v>-0.05023803402885493</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.05356644491719969</v>
+        <v>0.4645214434394213</v>
       </c>
       <c r="BN22" t="n">
-        <v>-0.1951205653818616</v>
+        <v>0.7532317357362528</v>
       </c>
       <c r="BO22" t="n">
-        <v>-1.15546110743293</v>
+        <v>0.5793216458634112</v>
       </c>
       <c r="BP22" t="n">
-        <v>1.632327257913744</v>
+        <v>0.6191076517720202</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0.2165562250174681</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0.08930021704576395</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0.1355986569829778</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>0.09371731969085373</v>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BV22" t="n">
+        <v>-0.3289469326865649</v>
+      </c>
+      <c r="BW22" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BX22" t="n">
+        <v>-0.6194351325981704</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>-0.6985709358768497</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>-0.1875479314742448</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>-0.8368814794246047</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.01582193749484899</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>-0.58939628879977</v>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CF22" t="n">
+        <v>-0.6881204736241424</v>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CH22" t="n">
+        <v>-0.7075751556075615</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>1.240407456789079</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>-1.338968789225604</v>
       </c>
     </row>
     <row r="23">
@@ -5118,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>11.06</v>
@@ -5247,64 +6683,124 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>-0.7796669173746026</v>
+        <v>-0.0487606675629216</v>
       </c>
       <c r="AX23" t="n">
-        <v>-0.3243857603923437</v>
+        <v>-0.05130084624375308</v>
       </c>
       <c r="AY23" t="n">
-        <v>-1.385298136370475</v>
+        <v>-0.09817445399480912</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.6350254540704678</v>
+        <v>-0.07454415623288663</v>
       </c>
       <c r="BA23" t="n">
-        <v>-2.057022274706739</v>
+        <v>-1.232467136995358</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.006437009800253583</v>
+        <v>-1.442123576395669</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.8316069364411405</v>
+        <v>-1.159393148685214</v>
       </c>
       <c r="BD23" t="n">
-        <v>-0.3217605004946445</v>
+        <v>-1.599774296991273</v>
       </c>
       <c r="BE23" t="n">
-        <v>-1.473120589332076</v>
+        <v>-0.5282785832413907</v>
       </c>
       <c r="BF23" t="n">
-        <v>-0.6360182535533655</v>
+        <v>-0.9944694288294534</v>
       </c>
       <c r="BG23" t="n">
-        <v>-1.143928842760139</v>
+        <v>-0.7350309694130326</v>
       </c>
       <c r="BH23" t="n">
-        <v>-0.3354160169437937</v>
+        <v>-0.7646783536852284</v>
       </c>
       <c r="BI23" t="n">
-        <v>-0.4004853833425666</v>
+        <v>-1.401155238646908</v>
       </c>
       <c r="BJ23" t="n">
-        <v>-0.1915017485407795</v>
+        <v>-1.474077841414656</v>
       </c>
       <c r="BK23" t="n">
-        <v>-0.8990933453090483</v>
+        <v>-0.8418744170711714</v>
       </c>
       <c r="BL23" t="n">
-        <v>-0.3365751873453071</v>
+        <v>-1.972962135734625</v>
       </c>
       <c r="BM23" t="n">
-        <v>-0.197783796617352</v>
+        <v>0.9621455508115182</v>
       </c>
       <c r="BN23" t="n">
-        <v>-0.1974464211609789</v>
+        <v>0.7366458528490184</v>
       </c>
       <c r="BO23" t="n">
-        <v>-0.6138178680636081</v>
+        <v>0.9697676560423094</v>
       </c>
       <c r="BP23" t="n">
-        <v>-0.2205128076124002</v>
+        <v>0.715972150803396</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>-0.1992877329363348</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>-0.3274341291678023</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>-0.5882445335304758</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>-0.03123910656361772</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>-0.6943522988682314</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>-1.011716747218132</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>-0.6832359146967759</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>-0.9934434366861767</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>-2.075144471277981</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>-2.010591227342046</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>-2.602620965264482</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>-1.235041826803792</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>-0.6121200011390379</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>-0.6863141976708798</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>-0.73305668757833</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>-0.4785997204484803</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>-1.156275321145151</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>-1.35674230185455</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>-1.041588742193122</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>-1.338968789225604</v>
       </c>
     </row>
     <row r="24">
@@ -5324,10 +6820,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>8.970000000000001</v>
@@ -5453,64 +6949,132 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>-1.087729225982375</v>
+        <v>-0.5663739078462445</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.802076692187542</v>
+        <v>-0.4514474469450286</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.5722650956877252</v>
+        <v>-0.4924816872526488</v>
       </c>
       <c r="AZ24" t="n">
-        <v>-0.5937199741127204</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0.7127451336245341</v>
+        <v>-0.5489160595330748</v>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BB24" t="n">
-        <v>0.4069286226061874</v>
+        <v>1.147327106552638</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.792923466053431</v>
+        <v>0.3770625605199027</v>
       </c>
       <c r="BD24" t="n">
-        <v>-0.2947496448967915</v>
+        <v>1.074620424422709</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.642233771115894</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0.3878136691947183</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>0.2941003065530914</v>
+        <v>-1.397572819097561</v>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BH24" t="n">
-        <v>-0.3438083925360927</v>
+        <v>-1.449237887819883</v>
       </c>
       <c r="BI24" t="n">
-        <v>-0.815680073125237</v>
+        <v>0.945077086163172</v>
       </c>
       <c r="BJ24" t="n">
-        <v>-0.193132153643067</v>
+        <v>1.219038796187749</v>
       </c>
       <c r="BK24" t="n">
-        <v>1.135843883082895</v>
+        <v>1.387094122703912</v>
       </c>
       <c r="BL24" t="n">
-        <v>1.593573814054505</v>
+        <v>0.9495784988581453</v>
       </c>
       <c r="BM24" t="n">
-        <v>-0.5480259364605797</v>
+        <v>1.649061965693779</v>
       </c>
       <c r="BN24" t="n">
-        <v>-0.1979034867206699</v>
+        <v>1.906438416483851</v>
       </c>
       <c r="BO24" t="n">
-        <v>-1.306900135583128</v>
+        <v>1.866899328285441</v>
       </c>
       <c r="BP24" t="n">
-        <v>-0.2523004000210977</v>
+        <v>1.684617141117154</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>-0.7033410153045806</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>-0.7858419100027256</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>-0.9023651633759375</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>-0.6560212378359744</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0.7213787139506215</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>1.497082200132747</v>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BX24" t="n">
+        <v>1.101003066206659</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0.978601310315958</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0.7048508846848189</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0.02946396349415931</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>1.370924348818377</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>-1.304057041869756</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>-1.368671000162224</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>-1.217571347145632</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>-1.316682733151129</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0.511204508592732</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0.6117376083988856</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0.3600943360920785</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0.7028871700933453</v>
       </c>
     </row>
     <row r="25">
@@ -5530,10 +7094,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>9.56</v>
@@ -5659,64 +7223,132 @@
         <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>-0.8369808352551185</v>
+        <v>-0.09377051454408016</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.21563295940477</v>
+        <v>-0.2975449082137687</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.04111981427623</v>
+        <v>-0.3009610310988409</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0.2111318874861552</v>
+        <v>-0.1694185368929243</v>
       </c>
       <c r="BA25" t="n">
-        <v>0.8696791009464755</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>-0.09813414569313922</v>
+        <v>0.03863497827867408</v>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BC25" t="n">
-        <v>1.045794119076775</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>-0.2856888740434099</v>
+        <v>-0.4214228617575388</v>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BE25" t="n">
-        <v>-0.08878117057269085</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>1.110448550457577</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>-0.2974551730223277</v>
+        <v>-1.2181946434447</v>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BH25" t="n">
-        <v>-0.3389909816109384</v>
+        <v>-1.175414074166021</v>
       </c>
       <c r="BI25" t="n">
-        <v>-0.952182436889403</v>
+        <v>-0.3531714668984057</v>
       </c>
       <c r="BJ25" t="n">
-        <v>-0.1936104671286465</v>
+        <v>0.3951747794026397</v>
       </c>
       <c r="BK25" t="n">
-        <v>1.088441019193566</v>
+        <v>0.1508299148444377</v>
       </c>
       <c r="BL25" t="n">
-        <v>-0.1249450249611741</v>
+        <v>0.02667093003937585</v>
       </c>
       <c r="BM25" t="n">
-        <v>-0.313157677977474</v>
+        <v>0.9484852811973836</v>
       </c>
       <c r="BN25" t="n">
-        <v>-0.1962756128307359</v>
+        <v>1.163976247237722</v>
       </c>
       <c r="BO25" t="n">
-        <v>-0.767467684945926</v>
+        <v>1.192311946831303</v>
       </c>
       <c r="BP25" t="n">
-        <v>-0.2451046873230542</v>
+        <v>0.9097011488661476</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>-0.7159423473637865</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>-1.105338242099794</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>-0.9569948381316696</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>-0.9059340903449173</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0.8968885771653041</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>1.231359483342626</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0.9523310083783666</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>1.250606387841861</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0.9729826428245248</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0.993818120393468</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0.5818477063905916</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>1.162447054768603</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>-0.7825478436835497</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>-0.8217276406459062</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>-0.9230205849417213</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>-0.5833600970363113</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>1.359737537636067</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0.6408743743884272</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>1.10404916018909</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0.7028871700933453</v>
       </c>
     </row>
     <row r="26">
@@ -5736,10 +7368,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>10.93</v>
@@ -5816,9 +7448,7 @@
       <c r="AF26" t="n">
         <v>167.94</v>
       </c>
-      <c r="AG26" t="n">
-        <v>161.765</v>
-      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
         <v>165</v>
       </c>
@@ -5865,64 +7495,124 @@
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>0.05854913162794037</v>
+        <v>-0.5326165226103757</v>
       </c>
       <c r="AX26" t="n">
-        <v>-0.3344165776845126</v>
+        <v>-0.348845754457522</v>
       </c>
       <c r="AY26" t="n">
-        <v>-1.548323092429551</v>
+        <v>-0.3460247148997369</v>
       </c>
       <c r="AZ26" t="n">
-        <v>-0.5417327768271684</v>
+        <v>-0.5489160595330748</v>
       </c>
       <c r="BA26" t="n">
-        <v>0.6770250888236445</v>
+        <v>0.2418934857037223</v>
       </c>
       <c r="BB26" t="n">
-        <v>0.1254190577092796</v>
+        <v>0.3667080791962394</v>
       </c>
       <c r="BC26" t="n">
-        <v>1.095468033288656</v>
+        <v>0.09885012008071517</v>
       </c>
       <c r="BD26" t="n">
-        <v>-0.1501968335972189</v>
+        <v>0.5073245744258036</v>
       </c>
       <c r="BE26" t="n">
-        <v>0.2179552752239509</v>
+        <v>0.03745258612532249</v>
       </c>
       <c r="BF26" t="n">
-        <v>-0.4805640975646571</v>
+        <v>0.07170155756450607</v>
       </c>
       <c r="BG26" t="n">
-        <v>3.05234690375989</v>
+        <v>0.04030327453943919</v>
       </c>
       <c r="BH26" t="n">
-        <v>2.884006762483767</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>-0.08766746638302025</v>
+        <v>0.05679308727635583</v>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BJ26" t="n">
-        <v>-0.1939784005790922</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>-0.03267433310963126</v>
+        <v>-0.04639262527714997</v>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BL26" t="n">
-        <v>-0.1256677357263788</v>
+        <v>-0.4347828543700089</v>
       </c>
       <c r="BM26" t="n">
-        <v>-0.4944594915433801</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>-0.1964377247533849</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>-0.4308751004807046</v>
-      </c>
+        <v>1.151437858321687</v>
+      </c>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="n">
-        <v>-0.2913977118511843</v>
+        <v>0.9097011488661476</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0.2165562250174681</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>-0.02182894194452057</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0.02633930747151361</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0.09371731969085373</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>-0.197681233671494</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>0.1619522552799275</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0.1069657130526248</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>-0.09582350687496161</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0.6077692558813673</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>0.9205139319232587</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0.4295880849511901</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>0.9539697607188298</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>-0.5132718524632213</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>-0.4281823219997355</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>-0.3798092155149451</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>-0.4785997204484803</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>-1.319591301630479</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>-1.49659877860435</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>-1.400531905301921</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>-1.218859615148019</v>
       </c>
     </row>
     <row r="27">
@@ -5942,10 +7632,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>10.98</v>
@@ -6071,64 +7761,126 @@
         <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>-0.9587729107512144</v>
+        <v>-0.5326165226103756</v>
       </c>
       <c r="AX27" t="n">
-        <v>-0.5373256817661477</v>
+        <v>-0.7489923551587975</v>
       </c>
       <c r="AY27" t="n">
-        <v>-1.77832729400127</v>
+        <v>-0.5600772129539927</v>
       </c>
       <c r="AZ27" t="n">
-        <v>0.5734252606189733</v>
+        <v>-0.7386648208531499</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.050621622970653</v>
+        <v>-0.4952868256458182</v>
       </c>
       <c r="BB27" t="n">
-        <v>-0.4341734595930559</v>
+        <v>-0.2642031894890693</v>
       </c>
       <c r="BC27" t="n">
-        <v>0.5749864440380731</v>
+        <v>-0.3475472419799017</v>
       </c>
       <c r="BD27" t="n">
-        <v>-0.3682289852980258</v>
+        <v>-0.4651825969974623</v>
       </c>
       <c r="BE27" t="n">
-        <v>-0.4937376856270501</v>
+        <v>-0.8180433285267805</v>
       </c>
       <c r="BF27" t="n">
-        <v>-0.754041113845169</v>
+        <v>-1.050583691271241</v>
       </c>
       <c r="BG27" t="n">
-        <v>0.09229953090361043</v>
+        <v>-0.9390662967689464</v>
       </c>
       <c r="BH27" t="n">
-        <v>-0.3088518043847751</v>
+        <v>-0.9015902605121593</v>
       </c>
       <c r="BI27" t="n">
-        <v>-0.9294320429287086</v>
+        <v>0.2029724915750945</v>
       </c>
       <c r="BJ27" t="n">
-        <v>-0.1921571299993859</v>
+        <v>1.193107824436419</v>
       </c>
       <c r="BK27" t="n">
-        <v>-0.06502866878012618</v>
+        <v>0.2537053859109795</v>
       </c>
       <c r="BL27" t="n">
-        <v>0.516655355133562</v>
+        <v>1.257214355131068</v>
       </c>
       <c r="BM27" t="n">
-        <v>-0.6551588262949788</v>
+        <v>0.6645468199321272</v>
       </c>
       <c r="BN27" t="n">
-        <v>-0.1954808140988594</v>
+        <v>0.5385908983720645</v>
       </c>
       <c r="BO27" t="n">
-        <v>-0.6867738962235576</v>
+        <v>0.5644191263909305</v>
       </c>
       <c r="BP27" t="n">
-        <v>-0.2490998186344096</v>
+        <v>0.6191076517720202</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>-0.6277330229493436</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>-1.14701167672115</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>-0.902365163375937</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>-0.9059340903449173</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0.07687153990500156</v>
+      </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BW27" t="n">
+        <v>-0.3128512895413451</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0.2781847972130447</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>1.454783380214921</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0.9576972159298872</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>1.536716185029937</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0.6412538196441695</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>-0.6212094860747454</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>-0.8174959705529368</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>-0.767207500587479</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>-0.5833600970363113</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>-1.783503362139528</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>-1.463965600696064</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>-2.166544689143047</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>-0.7384229188376777</v>
       </c>
     </row>
     <row r="28">
@@ -6148,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>8.890000000000001</v>
@@ -6277,64 +8029,132 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>-1.510419370351178</v>
+        <v>-0.3750820581763209</v>
       </c>
       <c r="AX28" t="n">
-        <v>-0.4023395404915007</v>
+        <v>-0.646390662671291</v>
       </c>
       <c r="AY28" t="n">
-        <v>-1.348017235566268</v>
+        <v>-0.6276727386553367</v>
       </c>
       <c r="AZ28" t="n">
-        <v>-0.2352857282894788</v>
+        <v>-0.4540416788730371</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.520837950431544</v>
+        <v>-0.1454759885918405</v>
       </c>
       <c r="BB28" t="n">
-        <v>4.682907508926994</v>
+        <v>-0.4155560883653362</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.315043572720157</v>
+        <v>-0.5118026093578396</v>
       </c>
       <c r="BD28" t="n">
-        <v>-0.05383802078543468</v>
+        <v>-0.05997127557110156</v>
       </c>
       <c r="BE28" t="n">
-        <v>-0.3765981767991985</v>
+        <v>-1.535556031138223</v>
       </c>
       <c r="BF28" t="n">
-        <v>-0.328242552433493</v>
+        <v>-1.401297831532412</v>
       </c>
       <c r="BG28" t="n">
-        <v>-0.2643135383262372</v>
+        <v>-1.4423534375802</v>
       </c>
       <c r="BH28" t="n">
-        <v>-0.3320970094987301</v>
+        <v>-1.449237887819883</v>
       </c>
       <c r="BI28" t="n">
-        <v>-1.134185588574957</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>-0.1944935074097162</v>
+        <v>0.56446606458287</v>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BK28" t="n">
-        <v>0.9804678292234256</v>
+        <v>-0.3362898370432925</v>
       </c>
       <c r="BL28" t="n">
-        <v>0.07925352644998543</v>
+        <v>0.5650336785169914</v>
       </c>
       <c r="BM28" t="n">
-        <v>-0.5562669279863027</v>
+        <v>1.337802965200259</v>
       </c>
       <c r="BN28" t="n">
-        <v>-0.196057212046056</v>
+        <v>1.294712029995913</v>
       </c>
       <c r="BO28" t="n">
-        <v>-1.131142431379614</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>-0.3163064323328544</v>
+        <v>1.324447619487272</v>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BQ28" t="n">
+        <v>-1.03097564884394</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>-1.202576256216292</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>-1.257458049288198</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>-1.030890516599388</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1.288690678449534</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>0.6340264006400355</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>1.033285481574814</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>0.951399744571456</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>0.6906446013800068</v>
+      </c>
+      <c r="BZ28" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CA28" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CB28" t="n">
+        <v>0.01582193749484899</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>-1.085909403412781</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>-1.235373392233682</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>-1.091640224174394</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>-1.107161979975467</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>-1.427285172820081</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>-1.02108675765503</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>-1.383487118226923</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>-0.858532092915263</v>
       </c>
     </row>
     <row r="29">
@@ -6354,10 +8174,10 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>12.92</v>
@@ -6483,64 +8303,134 @@
         <v>1</v>
       </c>
       <c r="AW29" t="n">
-        <v>-0.2280204577746381</v>
+        <v>1.987934908334501</v>
       </c>
       <c r="AX29" t="n">
-        <v>-0.4077848413072531</v>
+        <v>1.631366910551354</v>
       </c>
       <c r="AY29" t="n">
-        <v>-1.22732821770858</v>
+        <v>1.53538408378767</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-0.5726594326378731</v>
+        <v>1.822943456967865</v>
       </c>
       <c r="BA29" t="n">
-        <v>0.7578343705043452</v>
+        <v>-1.342933717117667</v>
       </c>
       <c r="BB29" t="n">
-        <v>-0.1577359684444649</v>
+        <v>-1.333544322853999</v>
       </c>
       <c r="BC29" t="n">
-        <v>0.2794687510148503</v>
+        <v>-1.330721713701436</v>
       </c>
       <c r="BD29" t="n">
-        <v>2.342119810476856</v>
+        <v>-1.437689768420728</v>
       </c>
       <c r="BE29" t="n">
-        <v>-1.48036633214617</v>
+        <v>-0.2109171955478684</v>
       </c>
       <c r="BF29" t="n">
-        <v>-0.7529814372680403</v>
+        <v>-0.2369268858653241</v>
       </c>
       <c r="BG29" t="n">
-        <v>2.233408030519583</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>2.913802888212454</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>0.9986638452401321</v>
+        <v>-0.5037909317429972</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BJ29" t="n">
-        <v>-0.1218243513626218</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>-1.877623892738785</v>
+        <v>-1.652408838573087</v>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BL29" t="n">
-        <v>-0.2402054791965695</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>1.223787241569867</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>-0.1880596905287039</v>
+        <v>-1.434599387257009</v>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BO29" t="n">
-        <v>0.3213457656230175</v>
+        <v>1.1754224247625</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.36504250975739</v>
+        <v>-0.5432663366044892</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>2.068952037720772</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0.5893814325020437</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0.7228676606071011</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>1.843107287253452</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>-1.747411478156328</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>-1.847983063001758</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>-1.973492606969369</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>-1.591856723226987</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0.5979365877713592</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>1.074558965665002</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0.82853189926528</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.7454924666690562</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0.2809218937942041</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>0.272159078386729</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>-0.2079879375626643</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0.7785247986054927</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>-0.8769813255325601</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>-1.340425712900406</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>-0.9914570155019488</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>-1.098750441070433</v>
       </c>
     </row>
     <row r="30">
@@ -6560,10 +8450,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>9.98</v>
@@ -6688,65 +8578,135 @@
       <c r="AV30" t="n">
         <v>1</v>
       </c>
-      <c r="AW30" t="n">
-        <v>-0.1420495809538644</v>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="AX30" t="n">
-        <v>-0.3665151930194628</v>
+        <v>1.918651649516372</v>
       </c>
       <c r="AY30" t="n">
-        <v>-1.189415437229726</v>
+        <v>1.400193032384982</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0.9839906568670606</v>
+        <v>2.392189740928091</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.1511791833941553</v>
+        <v>-1.573440647639551</v>
       </c>
       <c r="BB30" t="n">
-        <v>-0.5658103601400042</v>
+        <v>-1.664217504094539</v>
       </c>
       <c r="BC30" t="n">
-        <v>0.3512012508598012</v>
+        <v>-1.578283631041391</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.4664645474016456</v>
+        <v>-1.761858825561817</v>
       </c>
       <c r="BE30" t="n">
-        <v>-1.768183338372677</v>
+        <v>0.09264587094158729</v>
       </c>
       <c r="BF30" t="n">
-        <v>-0.7502993105290169</v>
+        <v>-0.3772125419697926</v>
       </c>
       <c r="BG30" t="n">
-        <v>2.318917987985455</v>
+        <v>-0.3405626698582667</v>
       </c>
       <c r="BH30" t="n">
-        <v>3.031812241627392</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>1.931429997628599</v>
+        <v>0.05679308727635583</v>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BJ30" t="n">
-        <v>-0.1932034407490909</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>-1.921640837778877</v>
+        <v>-1.447405984756145</v>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BL30" t="n">
-        <v>-0.6363532301894028</v>
+        <v>-1.51150835132524</v>
       </c>
       <c r="BM30" t="n">
-        <v>1.421571038187219</v>
+        <v>0.1581411106652311</v>
       </c>
       <c r="BN30" t="n">
-        <v>-0.1549888583083023</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>-0.07714890334155519</v>
+        <v>0.6127395512796927</v>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
       </c>
       <c r="BP30" t="n">
-        <v>0.06858376282115319</v>
+        <v>0.1347851566151413</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>2.446991999496956</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>2.450794845589308</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>2.552961764924135</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>2.217976566016867</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>-1.858106495619531</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>-1.822641659493163</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>-1.770748218344637</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>-1.891063366497392</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>0.4237578955369299</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0.1056688224065905</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>0.1958872706488533</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.2242992315446225</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>-0.3939723626820629</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>0.1378035529349447</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>-0.3371206992535087</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0.1499625390785062</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>-0.8414778515140108</v>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
+          <t>OUTLIER</t>
+        </is>
+      </c>
+      <c r="CI30" t="n">
+        <v>0.07133559035092155</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>-2.299842181846286</v>
       </c>
     </row>
   </sheetData>
